--- a/biology/Médecine/Muscle_droit_inférieur_de_l'œil/Muscle_droit_inférieur_de_l'œil.xlsx
+++ b/biology/Médecine/Muscle_droit_inférieur_de_l'œil/Muscle_droit_inférieur_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_inf%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_inférieur_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit inférieur du bulbe de l'œil ou muscle droit inférieur de l'œil est un des muscles extrinsèques de l'œil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_inf%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_inférieur_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine dorsale: il naît de l'apex orbitaire au niveau du ligament de Zinn (fixé sur le corps du sphénoïde).
 Trajet: ses fibres se dirigent en avant vers la face inférieure du globe oculaire.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_inf%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_inférieur_de_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par la branche inférieure  du nerf oculomoteur, 3e nerf crânien.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_droit_inf%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_inférieur_de_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action de ce muscle est de faire tourner le globe oculaire permettant principalement son abaissement, associé à une abduction et une rotation en dedans.
 </t>
